--- a/EF_data/Solar_Capacities_Jobs.xlsx
+++ b/EF_data/Solar_Capacities_Jobs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Equity_Research_EF\Equity-Research-EF\EF_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EA2D09-E089-4A8B-B630-E14136219CD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BF5C0F-1654-49CD-A732-D85BDFAC36E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3696" yWindow="1968" windowWidth="8796" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G1" activeCellId="1" sqref="F1:F1048576 G1:G1048576"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,8 +571,8 @@
         <v>39</v>
       </c>
       <c r="F2">
-        <f>D2/(30*B2)</f>
-        <v>3.8</v>
+        <f>D2/(B2)</f>
+        <v>114</v>
       </c>
       <c r="G2">
         <f>E2/(C2)</f>
@@ -596,8 +596,8 @@
         <v>483</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F49" si="0">D3/(30*B3)</f>
-        <v>0.13143859649122808</v>
+        <f t="shared" ref="F3:F49" si="0">D3/(B3)</f>
+        <v>3.9431578947368422</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G49" si="1">E3/(C3)</f>
@@ -622,7 +622,7 @@
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>0.29166666666666669</v>
+        <v>8.75</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
@@ -647,7 +647,7 @@
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>0.50937704918032789</v>
+        <v>15.281311475409836</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
@@ -672,7 +672,7 @@
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>0.77162790697674422</v>
+        <v>23.148837209302325</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
@@ -697,7 +697,7 @@
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>0.30019607843137253</v>
+        <v>9.0058823529411764</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
@@ -722,7 +722,7 @@
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>0.81944444444444442</v>
+        <v>24.583333333333332</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
@@ -747,7 +747,7 @@
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>0.24226666666666666</v>
+        <v>7.2679999999999998</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
@@ -772,7 +772,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>0.10163809523809524</v>
+        <v>3.0491428571428569</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
@@ -797,7 +797,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>0.39466666666666667</v>
+        <v>11.84</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
@@ -822,7 +822,7 @@
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>1.1406349206349207</v>
+        <v>34.219047619047622</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
@@ -847,7 +847,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>1.2622222222222221</v>
+        <v>37.866666666666667</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
@@ -872,7 +872,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>0.64111111111111108</v>
+        <v>19.233333333333334</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
@@ -897,7 +897,7 @@
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>0.93185185185185182</v>
+        <v>27.955555555555556</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
@@ -922,7 +922,7 @@
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>5.5944444444444441</v>
+        <v>167.83333333333334</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
@@ -947,7 +947,7 @@
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>10.558333333333334</v>
+        <v>316.75</v>
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
@@ -972,7 +972,7 @@
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>0.9508771929824561</v>
+        <v>28.526315789473685</v>
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
@@ -997,7 +997,7 @@
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>0.75354166666666667</v>
+        <v>22.606249999999999</v>
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>1.0327407407407407</v>
+        <v>30.982222222222223</v>
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>2.7255555555555557</v>
+        <v>81.766666666666666</v>
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>0.41138888888888892</v>
+        <v>12.341666666666667</v>
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>3.4533333333333331</v>
+        <v>103.6</v>
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>1.1418181818181818</v>
+        <v>34.254545454545458</v>
       </c>
       <c r="G24">
         <f t="shared" si="1"/>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
-        <v>0.12407407407407407</v>
+        <v>3.7222222222222223</v>
       </c>
       <c r="G25">
         <f t="shared" si="1"/>
@@ -1172,7 +1172,7 @@
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
-        <v>2.2133333333333334</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="G26">
         <f t="shared" si="1"/>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
-        <v>0.46450000000000002</v>
+        <v>13.935</v>
       </c>
       <c r="G27">
         <f t="shared" si="1"/>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
-        <v>1.1840579710144927</v>
+        <v>35.521739130434781</v>
       </c>
       <c r="G28">
         <f t="shared" si="1"/>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
-        <v>3.1288888888888891</v>
+        <v>93.86666666666666</v>
       </c>
       <c r="G29">
         <f t="shared" si="1"/>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
-        <v>0.29705882352941176</v>
+        <v>8.9117647058823533</v>
       </c>
       <c r="G30">
         <f t="shared" si="1"/>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
-        <v>0.56695652173913047</v>
+        <v>17.008695652173913</v>
       </c>
       <c r="G31">
         <f t="shared" si="1"/>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
-        <v>0.13603508771929826</v>
+        <v>4.081052631578947</v>
       </c>
       <c r="G32">
         <f t="shared" si="1"/>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
-        <v>13.333333333333334</v>
+        <v>400</v>
       </c>
       <c r="G33">
         <f t="shared" si="1"/>
@@ -1372,7 +1372,7 @@
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
-        <v>2.6576923076923076</v>
+        <v>79.730769230769226</v>
       </c>
       <c r="G34">
         <f t="shared" si="1"/>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="F35">
         <f t="shared" si="0"/>
-        <v>8.3833333333333329</v>
+        <v>251.5</v>
       </c>
       <c r="G35">
         <f t="shared" si="1"/>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="F36">
         <f t="shared" si="0"/>
-        <v>0.54897435897435898</v>
+        <v>16.469230769230769</v>
       </c>
       <c r="G36">
         <f t="shared" si="1"/>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="F37">
         <f t="shared" si="0"/>
-        <v>1.038974358974359</v>
+        <v>31.169230769230769</v>
       </c>
       <c r="G37">
         <f t="shared" si="1"/>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="F38">
         <f t="shared" si="0"/>
-        <v>0.15505376344086022</v>
+        <v>4.6516129032258062</v>
       </c>
       <c r="G38">
         <f t="shared" si="1"/>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="F39">
         <f t="shared" si="0"/>
-        <v>0.15993464052287582</v>
+        <v>4.7980392156862743</v>
       </c>
       <c r="G39">
         <f t="shared" si="1"/>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="F40">
         <f t="shared" si="0"/>
-        <v>69.333333333333329</v>
+        <v>2080</v>
       </c>
       <c r="G40">
         <f t="shared" si="1"/>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="F41">
         <f t="shared" si="0"/>
-        <v>0.94722222222222219</v>
+        <v>28.416666666666668</v>
       </c>
       <c r="G41">
         <f t="shared" si="1"/>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="F42">
         <f t="shared" si="0"/>
-        <v>0.12992592592592592</v>
+        <v>3.8977777777777778</v>
       </c>
       <c r="G42">
         <f t="shared" si="1"/>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="F43">
         <f t="shared" si="0"/>
-        <v>1.9076666666666666</v>
+        <v>57.23</v>
       </c>
       <c r="G43">
         <f t="shared" si="1"/>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="F44">
         <f t="shared" si="0"/>
-        <v>0.42198581560283688</v>
+        <v>12.659574468085106</v>
       </c>
       <c r="G44">
         <f t="shared" si="1"/>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="F45">
         <f t="shared" si="0"/>
-        <v>0.77733333333333332</v>
+        <v>23.32</v>
       </c>
       <c r="G45">
         <f t="shared" si="1"/>
@@ -1672,7 +1672,7 @@
       </c>
       <c r="F46">
         <f t="shared" si="0"/>
-        <v>2.5057142857142858</v>
+        <v>75.171428571428578</v>
       </c>
       <c r="G46">
         <f t="shared" si="1"/>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="F47">
         <f t="shared" si="0"/>
-        <v>3.0188679245283021</v>
+        <v>90.566037735849065</v>
       </c>
       <c r="G47">
         <f t="shared" si="1"/>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="F48">
         <f t="shared" si="0"/>
-        <v>1.3348148148148149</v>
+        <v>40.044444444444444</v>
       </c>
       <c r="G48">
         <f t="shared" si="1"/>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="F49">
         <f t="shared" si="0"/>
-        <v>1.3222222222222222</v>
+        <v>39.666666666666664</v>
       </c>
       <c r="G49">
         <f t="shared" si="1"/>
